--- a/Risk_Module_Estimation_v3.xlsx
+++ b/Risk_Module_Estimation_v3.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eviswana\Documents\2.0\BHGE RT\Risk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -267,8 +262,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -646,7 +641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -840,21 +835,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
@@ -863,7 +858,7 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +881,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -899,7 +894,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -920,7 +915,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -939,7 +934,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -956,7 +951,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -975,7 +970,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="8"/>
       <c r="B7" s="7">
         <f>SUM(B3:B6)</f>
@@ -1007,7 +1002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1039,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1107,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="7">
         <f>SUM(B10:B11)</f>
@@ -1132,7 +1127,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1140,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1161,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1182,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1197,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
@@ -1225,7 +1220,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
@@ -1242,7 +1237,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -1261,7 +1256,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
@@ -1280,7 +1275,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="45">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
@@ -1301,7 +1296,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
         <v>11</v>
       </c>
@@ -1320,7 +1315,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
@@ -1335,7 +1330,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="8"/>
       <c r="B24" s="7">
         <f>SUM(B14:B23)</f>
@@ -1355,7 +1350,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1368,7 +1363,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
@@ -1389,7 +1384,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -1408,7 +1403,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1424,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +1443,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="8"/>
       <c r="B30" s="7">
         <f>SUM(B26:B29)</f>
@@ -1468,7 +1463,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1476,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="45">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
@@ -1502,7 +1497,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1520,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -1544,7 +1539,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
@@ -1563,7 +1558,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
@@ -1580,7 +1575,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1594,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="7">
         <f>SUM(B32:B37)</f>
@@ -1619,7 +1614,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1632,7 +1627,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -1653,7 +1648,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
@@ -1672,7 +1667,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="60">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -1693,7 +1688,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1707,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="7">
         <f>SUM(B40:B43)</f>
@@ -1732,7 +1727,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
@@ -1753,7 +1748,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -1764,7 +1759,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>56</v>
       </c>
@@ -1777,7 +1772,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
         <v>57</v>
       </c>
@@ -1800,7 +1795,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1812,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="7">
         <f>SUM(B48:B49)</f>
@@ -1837,7 +1832,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>60</v>
       </c>
@@ -1854,7 +1849,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -1875,14 +1870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1905,7 +1900,7 @@
     <col min="32" max="32" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
       <c r="D1" s="27"/>
@@ -1913,7 +1908,7 @@
       <c r="AA1" s="35"/>
       <c r="AF1" s="29"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -1930,7 +1925,7 @@
       <c r="AA2" s="35"/>
       <c r="AF2" s="29"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -1947,7 +1942,7 @@
       <c r="AA3" s="35"/>
       <c r="AF3" s="29"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -1961,7 +1956,7 @@
       <c r="AA4" s="35"/>
       <c r="AF4" s="29"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="D5" s="21">
         <v>43215</v>
       </c>
@@ -2050,7 +2045,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="34" t="s">
         <v>61</v>
       </c>
@@ -2073,7 +2068,7 @@
       <c r="AA6" s="29"/>
       <c r="AF6" s="29"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2084,7 @@
       <c r="AA7" s="29"/>
       <c r="AF7" s="29"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2101,7 @@
       <c r="AA8" s="29"/>
       <c r="AF8" s="29"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="G9" s="29"/>
       <c r="L9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2114,7 +2109,7 @@
       <c r="AA9" s="29"/>
       <c r="AF9" s="29"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="34" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2141,7 @@
       <c r="AA10" s="29"/>
       <c r="AF10" s="29"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2166,7 @@
       <c r="AA11" s="29"/>
       <c r="AF11" s="29"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2188,7 @@
       <c r="AA12" s="29"/>
       <c r="AF12" s="29"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="G13" s="29"/>
       <c r="L13" s="29"/>
       <c r="Q13" s="29"/>
@@ -2201,7 +2196,7 @@
       <c r="AA13" s="29"/>
       <c r="AF13" s="29"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="34" t="s">
         <v>62</v>
       </c>
@@ -2229,7 +2224,7 @@
       <c r="AA14" s="29"/>
       <c r="AF14" s="29"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2243,7 @@
       <c r="AA15" s="29"/>
       <c r="AF15" s="29"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2268,7 +2263,7 @@
       <c r="AA16" s="29"/>
       <c r="AF16" s="29"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="G17" s="29"/>
       <c r="L17" s="29"/>
       <c r="Q17" s="29"/>
@@ -2276,7 +2271,7 @@
       <c r="AA17" s="29"/>
       <c r="AF17" s="29"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="34" t="s">
         <v>70</v>
       </c>
@@ -2299,7 +2294,7 @@
       <c r="AA18" s="29"/>
       <c r="AF18" s="29"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2316,7 @@
       <c r="AA19" s="29"/>
       <c r="AF19" s="29"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2335,7 @@
       <c r="AA20" s="29"/>
       <c r="AF20" s="29"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="G21" s="29"/>
       <c r="L21" s="29"/>
       <c r="Q21" s="29"/>
@@ -2348,7 +2343,7 @@
       <c r="AA21" s="29"/>
       <c r="AF21" s="29"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" s="34" t="s">
         <v>44</v>
       </c>
@@ -2370,26 +2365,26 @@
       <c r="AA22" s="29"/>
       <c r="AF22" s="29"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="29"/>
       <c r="L23" s="29"/>
+      <c r="N23" s="26">
+        <v>2</v>
+      </c>
       <c r="O23" s="26">
         <v>2</v>
       </c>
-      <c r="P23" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="31">
+      <c r="P23" s="31">
         <v>2</v>
       </c>
       <c r="V23" s="29"/>
       <c r="AA23" s="29"/>
       <c r="AF23" s="29"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2403,7 @@
       <c r="AA24" s="29"/>
       <c r="AF24" s="29"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="29"/>
       <c r="L25" s="29"/>
       <c r="Q25" s="29"/>
@@ -2416,7 +2411,7 @@
       <c r="AA25" s="29"/>
       <c r="AF25" s="29"/>
     </row>
-    <row r="26" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="30">
       <c r="A26" s="34" t="s">
         <v>69</v>
       </c>
@@ -2441,27 +2436,26 @@
       <c r="AA26" s="29"/>
       <c r="AF26" s="29"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="29"/>
       <c r="L27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="Q27" s="39">
+        <v>2</v>
+      </c>
       <c r="R27" s="39">
         <v>2</v>
       </c>
       <c r="S27" s="39">
-        <v>2</v>
-      </c>
-      <c r="T27" s="39">
         <v>2</v>
       </c>
       <c r="V27" s="29"/>
       <c r="AA27" s="29"/>
       <c r="AF27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2478,7 +2472,7 @@
       <c r="AA28" s="29"/>
       <c r="AF28" s="29"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="29"/>
       <c r="L29" s="29"/>
       <c r="Q29" s="29"/>
@@ -2486,7 +2480,7 @@
       <c r="AA29" s="29"/>
       <c r="AF29" s="29"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30" s="34" t="s">
         <v>56</v>
       </c>
@@ -2505,7 +2499,7 @@
       <c r="AA30" s="29"/>
       <c r="AF30" s="29"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2516,7 @@
       <c r="AA31" s="29"/>
       <c r="AF31" s="29"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -2539,7 +2533,7 @@
       <c r="AA32" s="29"/>
       <c r="AF32" s="29"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="G33" s="29"/>
       <c r="L33" s="29"/>
       <c r="Q33" s="29"/>
@@ -2547,7 +2541,7 @@
       <c r="AA33" s="29"/>
       <c r="AF33" s="29"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
@@ -2566,21 +2560,21 @@
       <c r="AA34" s="29"/>
       <c r="AF34" s="29"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="29"/>
       <c r="L35" s="29"/>
       <c r="Q35" s="29"/>
-      <c r="U35" s="26">
+      <c r="T35" s="26">
         <v>2</v>
       </c>
       <c r="V35" s="29"/>
       <c r="AA35" s="29"/>
       <c r="AF35" s="29"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="G36" s="29"/>
       <c r="L36" s="29"/>
       <c r="Q36" s="29"/>
@@ -2588,7 +2582,7 @@
       <c r="AA36" s="29"/>
       <c r="AF36" s="29"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37" s="34" t="s">
         <v>60</v>
       </c>
@@ -2605,7 +2599,7 @@
       <c r="AA37" s="29"/>
       <c r="AF37" s="29"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2621,7 @@
       <c r="AA38" s="29"/>
       <c r="AF38" s="29"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="G39" s="29"/>
       <c r="L39" s="29"/>
       <c r="Q39" s="29"/>
@@ -2635,7 +2629,7 @@
       <c r="AA39" s="29"/>
       <c r="AF39" s="29"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40" s="34" t="s">
         <v>71</v>
       </c>
@@ -2646,7 +2640,7 @@
       <c r="AA40" s="29"/>
       <c r="AF40" s="29"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="B41" t="s">
         <v>72</v>
       </c>
